--- a/PUK/To-Do.xlsx
+++ b/PUK/To-Do.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KU\Masters\Gemma_group\PUK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/zfq417_alumni_ku_dk/Documents/Documents/KU tid/Gemma_group/PUK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53991B00-C27D-436F-9630-4070A51540A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{53991B00-C27D-436F-9630-4070A51540A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB1A9CBE-E6D1-4FB3-9A95-1F0360DAE10A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Opgave</t>
   </si>
   <si>
-    <t>Undersøge regularization på autoregression</t>
-  </si>
-  <si>
     <t>Vågne ved alarm</t>
   </si>
   <si>
@@ -75,16 +72,19 @@
     <t>Lave To-Do liste</t>
   </si>
   <si>
-    <t>Opvaskemaskine</t>
-  </si>
-  <si>
-    <t>Gå i bad</t>
-  </si>
-  <si>
-    <t>Eksamens præsentation</t>
-  </si>
-  <si>
-    <t>Research gpaw simulation</t>
+    <t>Direction of work</t>
+  </si>
+  <si>
+    <t>Figure out how to assess the validity of simulation</t>
+  </si>
+  <si>
+    <t>Create OLS VAR models based on xyz file</t>
+  </si>
+  <si>
+    <t>Calculate and save new positions and momenta</t>
+  </si>
+  <si>
+    <t>Integrate model with gpaw simulation</t>
   </si>
 </sst>
 </file>
@@ -249,19 +249,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +553,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E22" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,22 +581,18 @@
       </c>
       <c r="B2" s="12"/>
       <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="14"/>
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -612,33 +610,36 @@
       <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -656,35 +657,35 @@
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="6"/>
     </row>
